--- a/11 DAY-11/Emojis Unicode characters.xlsx
+++ b/11 DAY-11/Emojis Unicode characters.xlsx
@@ -885,7 +885,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="65.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/11 DAY-11/Emojis Unicode characters.xlsx
+++ b/11 DAY-11/Emojis Unicode characters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="172">
   <si>
     <t>| Emoji | Unicode |</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>| 🤩 | `\U0001F929` |</t>
-  </si>
-  <si>
-    <t>| 😘 | `\U0001F618` |</t>
   </si>
   <si>
     <t>| 😗 | `\U0001F617` |</t>
@@ -980,423 +977,421 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -1404,67 +1399,67 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -1474,327 +1469,327 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
@@ -1802,102 +1797,102 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
